--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Reeves.Spring.022620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Reeves.Spring.022620.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4377,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4923,12 +4923,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5809,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6019,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6397,12 +6397,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6607,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6733,12 +6733,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6775,12 +6775,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6985,12 +6985,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8077,12 +8077,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8161,12 +8161,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8589,12 +8589,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8635,12 +8635,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8677,12 +8677,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8933,12 +8933,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9311,12 +9311,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9777,12 +9777,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9903,12 +9903,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10033,12 +10033,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10075,12 +10075,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10541,12 +10541,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10587,12 +10587,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10629,12 +10629,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10713,12 +10713,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11015,12 +11015,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11477,12 +11477,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11561,12 +11561,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11649,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11817,12 +11817,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11863,12 +11863,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11905,12 +11905,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12367,12 +12367,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12619,12 +12619,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12871,12 +12871,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13123,12 +13123,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13165,12 +13165,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13417,12 +13417,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14257,12 +14257,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14727,12 +14727,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14895,12 +14895,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15105,12 +15105,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15777,12 +15777,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15861,12 +15861,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15903,12 +15903,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15987,12 +15987,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16449,12 +16449,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16701,12 +16701,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16743,12 +16743,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17037,12 +17037,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17625,12 +17625,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17961,12 +17961,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18171,12 +18171,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18423,12 +18423,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18465,12 +18465,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18843,12 +18843,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20271,12 +20271,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20481,12 +20481,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20985,12 +20985,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21489,12 +21489,12 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21867,12 +21867,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22245,12 +22245,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22747,12 +22747,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23083,12 +23083,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23209,12 +23209,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23251,12 +23251,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23503,12 +23503,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23545,12 +23545,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23755,12 +23755,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24133,12 +24133,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24553,12 +24553,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24763,12 +24763,12 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25183,12 +25183,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25565,12 +25565,12 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25905,12 +25905,12 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25947,12 +25947,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25989,12 +25989,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26241,12 +26241,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
